--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N2">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O2">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P2">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q2">
-        <v>1.736875852995333</v>
+        <v>0.305002470292</v>
       </c>
       <c r="R2">
-        <v>15.631882676958</v>
+        <v>2.745022232628</v>
       </c>
       <c r="S2">
-        <v>0.00138555406465657</v>
+        <v>0.0002543862122368823</v>
       </c>
       <c r="T2">
-        <v>0.00138555406465657</v>
+        <v>0.0002543862122368822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P3">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q3">
-        <v>14.40065870644033</v>
+        <v>8.797150435545333</v>
       </c>
       <c r="R3">
-        <v>129.605928357963</v>
+        <v>79.174353919908</v>
       </c>
       <c r="S3">
-        <v>0.01148780505528395</v>
+        <v>0.007337231648104175</v>
       </c>
       <c r="T3">
-        <v>0.01148780505528395</v>
+        <v>0.007337231648104174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P4">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q4">
-        <v>22.68466835514166</v>
+        <v>13.85772999476667</v>
       </c>
       <c r="R4">
-        <v>204.162015196275</v>
+        <v>124.7195699529</v>
       </c>
       <c r="S4">
-        <v>0.01809618942577195</v>
+        <v>0.01155798980970609</v>
       </c>
       <c r="T4">
-        <v>0.01809618942577195</v>
+        <v>0.01155798980970609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N5">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O5">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P5">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q5">
-        <v>45.90525023773757</v>
+        <v>13.19584718917367</v>
       </c>
       <c r="R5">
-        <v>413.1472521396381</v>
+        <v>118.762624702563</v>
       </c>
       <c r="S5">
-        <v>0.03661989194350618</v>
+        <v>0.01100594883869912</v>
       </c>
       <c r="T5">
-        <v>0.03661989194350618</v>
+        <v>0.01100594883869911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P6">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q6">
         <v>380.6062709475493</v>
@@ -818,10 +818,10 @@
         <v>3425.456438527943</v>
       </c>
       <c r="S6">
-        <v>0.3036201838120514</v>
+        <v>0.3174432899748586</v>
       </c>
       <c r="T6">
-        <v>0.3036201838120513</v>
+        <v>0.3174432899748586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P7">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q7">
-        <v>599.5508404397528</v>
+        <v>599.550840439753</v>
       </c>
       <c r="R7">
-        <v>5395.957563957775</v>
+        <v>5395.957563957776</v>
       </c>
       <c r="S7">
-        <v>0.4782783424082723</v>
+        <v>0.5000532198866866</v>
       </c>
       <c r="T7">
-        <v>0.4782783424082722</v>
+        <v>0.5000532198866865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N8">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O8">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P8">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q8">
-        <v>8.441218179902002</v>
+        <v>2.426498594727001</v>
       </c>
       <c r="R8">
-        <v>75.97096361911801</v>
+        <v>21.838487352543</v>
       </c>
       <c r="S8">
-        <v>0.006733793978220258</v>
+        <v>0.002023812416731464</v>
       </c>
       <c r="T8">
-        <v>0.006733793978220257</v>
+        <v>0.002023812416731464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P9">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q9">
         <v>69.98721403474701</v>
@@ -1004,10 +1004,10 @@
         <v>629.8849263127231</v>
       </c>
       <c r="S9">
-        <v>0.0558307427169313</v>
+        <v>0.05837258388847296</v>
       </c>
       <c r="T9">
-        <v>0.05583074271693129</v>
+        <v>0.05837258388847295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P10">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q10">
         <v>110.247508245475</v>
       </c>
       <c r="R10">
-        <v>992.227574209275</v>
+        <v>992.2275742092752</v>
       </c>
       <c r="S10">
-        <v>0.08794749659530618</v>
+        <v>0.09195153732450422</v>
       </c>
       <c r="T10">
-        <v>0.08794749659530617</v>
+        <v>0.0919515373245042</v>
       </c>
     </row>
   </sheetData>
